--- a/DOM_Banner/output/dept0713/Jennifer S Carew_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Jennifer S Carew_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Division of Rheumatology, Department of Internal Medicine, Michigan Medicine, University of Michigan, Ann Arbor, Michigan.; 3Department of Hematopathology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 4Division of Hematology/Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, Pennsylvania.; 5Division of Hematology, Children's Hospital of Philadelphia, Philadelphia, Pennsylvania.; 6Department of Genomic Medicine, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 7MDS Research Group, Josep Carreras Leukaemia Research Institute, Universitat Autonoma de Barcelona, Badalona, Spain.; 7MDS Research Group, Josep Carreras Leukaemia Research Institute, Universitat Autonoma de Barcelona, Badalona, Spain.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 8MDS Unit, Azienda Ospedaliero Universitaria Careggi, University of Florence, Florence, Italy.; 9Department of Translational Hematology and Oncology Research, Taussig Cancer Institute, Cleveland Clinic Foundation, Cleveland, Ohio.; 9Department of Translational Hematology and Oncology Research, Taussig Cancer Institute, Cleveland Clinic Foundation, Cleveland, Ohio.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 10Department of Hematologic Oncology, State Key Laboratory of Oncology in South China, Collaborative Innovation Center for Cancer Medicine, Sun Yat-sen University Cancer Center, Guangzhou, P.R. China.; 3Department of Hematopathology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 11Department of Molecular, Cell and Developmental Biology, University of California, Los Angeles, California.; 12Moores Cancer Center, Univerity of California San Diego, San Diego, California.; 12Moores Cancer Center, Univerity of California San Diego, San Diego, California.; 13University of Arizona Cancer Center, Tucson, Arizona.; 14Section of Hematology, Department of Internal Medicine and Yale Comprehensive Cancer Center, Yale University School of Medicine, New Haven, Connecticut.; 8MDS Unit, Azienda Ospedaliero Universitaria Careggi, University of Florence, Florence, Italy.; 15Department of Stem Cell Transplantation and Hematopoietic Biology and Malignancy, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 15Department of Stem Cell Transplantation and Hematopoietic Biology and Malignancy, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 5Division of Hematology, Children's Hospital of Philadelphia, Philadelphia, Pennsylvania.; 1Department of Leukemia, The University of Texas MD Anderson Cancer Center, Houston, Texas.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289800060</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &lt;i&gt;SF3B1&lt;/i&gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Blood cancer discovery</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2643-3230.bcd-21-0220</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35926182</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2643-3230.bcd-21-0220</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ, USA.; University of Arizona Cancer Center, Tucson, USA; Department of Pharmacology and Toxicology, University of Arizona, Tucson, USA; University of Arizona Cancer Center, Tucson, USA; University of Arizona Cancer Center, Tucson, USA; University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224029012</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Targeted CUL4A inhibition synergizes with cisplatin to yield long-term survival in models of head and neck squamous cell carcinoma through a DDB2-mediated mechanism</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cell Death and Disease</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41419-022-04798-6</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35428778</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41419-022-04798-6</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312378026</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in SF3B1 Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.52519/00041</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.52519/00041</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1University of Arizona Cancer Center, Tucson, AZ;; 1University of Arizona Cancer Center, Tucson, AZ;; 2University of Arizona, Tucson, AZ.; 1University of Arizona Cancer Center, Tucson, AZ;; 1University of Arizona Cancer Center, Tucson, AZ;; 1University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282972157</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Abstract 2640: Targeted CUL4A inhibition synergizes with cisplatin to yield long-term survival in models of head and neck squamous cell carcinoma through a DDB2-mediated mechanism</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-2640</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-2640</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, AZ; State Key Laboratory of Respiratory Disease, Guangzhou Med Univ, Guangzhou, China; Guangzhou Med Univ, China; Univ of Arizona, Tucson, AZ; San Diego, CA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380867917</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Abstract 15215: Autophagy Inhibition Attenuate the Development and Progression of Pulmonary Hypertension</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.15215</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.15215</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
